--- a/Grafik Uji Coba TA.xlsx
+++ b/Grafik Uji Coba TA.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tugas-Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A14C5EE-B9E4-4812-A890-D8048E49B9C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D8CE6F-7572-4141-8C37-DD58282490C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5C8BCCF1-8E2D-4CBC-85A1-767027C725AE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{5C8BCCF1-8E2D-4CBC-85A1-767027C725AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Document" sheetId="5" r:id="rId2"/>
     <sheet name="skenario uji coba" sheetId="6" r:id="rId3"/>
-    <sheet name="format file" sheetId="7" r:id="rId4"/>
-    <sheet name="Video" sheetId="4" r:id="rId5"/>
-    <sheet name="Audio" sheetId="3" r:id="rId6"/>
-    <sheet name="gambar" sheetId="2" r:id="rId7"/>
+    <sheet name="Skenario Pomits" sheetId="8" r:id="rId4"/>
+    <sheet name="format file" sheetId="7" r:id="rId5"/>
+    <sheet name="Video" sheetId="4" r:id="rId6"/>
+    <sheet name="Audio" sheetId="3" r:id="rId7"/>
+    <sheet name="gambar" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
   <si>
     <t>File</t>
   </si>
@@ -476,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -494,27 +495,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -528,12 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -549,6 +532,39 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5925,7 +5941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD86C36-E1C8-4193-8288-AB89DA5BABA8}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -6020,18 +6036,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -6138,281 +6154,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A84E121-8B11-4301-9D7B-7DE5519BAA19}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="26"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="26"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="26"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="26"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="26"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6431,6 +6447,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBDD9AE-0B29-498E-8B2D-559B7C87C72D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8D3E5F-75D6-4D6E-BDFE-BE53D2AA3877}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -6468,184 +6638,184 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>250</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="4">
         <v>500</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4">
         <v>750</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="4">
         <v>250</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="32">
         <v>2</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4">
         <v>500</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4">
         <v>750</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>250</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="32">
         <v>3</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="4">
         <v>500</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="4">
         <v>750</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="32">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="4">
         <v>250</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="32">
         <v>4</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="4">
         <v>500</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="4">
         <v>750</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6659,46 +6829,46 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6733,7 +6903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818FB8DA-3616-4510-A4CD-5A4E6B3051CA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -6832,18 +7002,18 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6946,7 +7116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC116CE-E03C-4392-A1BF-AAB1A7E1E4D7}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -7045,18 +7215,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -7159,7 +7329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FD9D5-7CE9-4B2F-94FA-23FEEF4D788D}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -7263,24 +7433,24 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
